--- a/Doc/xlsx/Role.xlsx
+++ b/Doc/xlsx/Role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25095" windowHeight="12600"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
   <si>
     <t>note</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>NoxiousSon</t>
+  </si>
+  <si>
+    <t>蜘蛛子</t>
   </si>
   <si>
     <t>BigDevil_chase</t>
@@ -365,15 +368,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,62 +391,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -453,32 +407,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,19 +445,77 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -531,7 +534,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,13 +606,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,145 +696,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,45 +728,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -773,27 +737,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -814,11 +761,67 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,10 +833,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,133 +845,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1302,8 +1305,8 @@
   <sheetPr/>
   <dimension ref="A1:AE27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="A22" sqref="$A22:$XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1318,7 +1321,13 @@
     <col min="9" max="9" width="15.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.125" style="1" customWidth="1"/>
-    <col min="12" max="22" width="9" style="1"/>
+    <col min="12" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="15.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.25" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15" style="1" customWidth="1"/>
+    <col min="21" max="22" width="9" style="1"/>
     <col min="23" max="23" width="12" style="1" customWidth="1"/>
     <col min="24" max="16384" width="9" style="1"/>
   </cols>
@@ -3459,7 +3468,7 @@
         <v>101</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E24">
         <v>2011</v>
@@ -3548,16 +3557,16 @@
         <v>2012</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E25">
         <v>2012</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G25" s="1">
         <v>5</v>
@@ -3640,16 +3649,16 @@
         <v>3001</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E26">
         <v>1004</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G26" s="3">
         <v>40</v>
@@ -3732,16 +3741,16 @@
         <v>3002</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E27">
         <v>1005</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G27" s="3">
         <v>40</v>

--- a/Doc/xlsx/Role.xlsx
+++ b/Doc/xlsx/Role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="25095" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
   <si>
     <t>note</t>
   </si>
@@ -33,9 +33,6 @@
     <t>animSetId</t>
   </si>
   <si>
-    <t>bevTreeFile</t>
-  </si>
-  <si>
     <t>moveSpeed</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>normalSkill1</t>
   </si>
   <si>
-    <t>maxAttack1Times</t>
-  </si>
-  <si>
     <t>normalSkill2</t>
   </si>
   <si>
@@ -90,21 +84,6 @@
     <t>lifeBarHeight</t>
   </si>
   <si>
-    <t>IdleDuration</t>
-  </si>
-  <si>
-    <t>IdleTurnFaceTime</t>
-  </si>
-  <si>
-    <t>WanderDuration</t>
-  </si>
-  <si>
-    <t>WanderChangeDirTime</t>
-  </si>
-  <si>
-    <t>DeadBodyTime</t>
-  </si>
-  <si>
     <t>bulletX</t>
   </si>
   <si>
@@ -120,9 +99,6 @@
     <t>动画集id</t>
   </si>
   <si>
-    <t>行为树</t>
-  </si>
-  <si>
     <t>移动速度(10以下慢)</t>
   </si>
   <si>
@@ -156,9 +132,6 @@
     <t>普攻技1</t>
   </si>
   <si>
-    <t>普攻1持续次数</t>
-  </si>
-  <si>
     <t>普攻技2</t>
   </si>
   <si>
@@ -177,21 +150,6 @@
     <t>血条高度</t>
   </si>
   <si>
-    <t>Idle时间</t>
-  </si>
-  <si>
-    <t>Idle转身时间</t>
-  </si>
-  <si>
-    <t>巡逻时间</t>
-  </si>
-  <si>
-    <t>巡逻变向时间</t>
-  </si>
-  <si>
-    <t>尸体存在时间</t>
-  </si>
-  <si>
     <t>子弹发射位置x</t>
   </si>
   <si>
@@ -213,9 +171,6 @@
     <t>...</t>
   </si>
   <si>
-    <t>res/bt/bt_ogre.xml</t>
-  </si>
-  <si>
     <t>Jedi2</t>
   </si>
   <si>
@@ -246,9 +201,6 @@
     <t>圣骑士</t>
   </si>
   <si>
-    <t>res/bt/bt_HolyKnight.xml</t>
-  </si>
-  <si>
     <t>Barbarian</t>
   </si>
   <si>
@@ -273,9 +225,6 @@
     <t>萨满</t>
   </si>
   <si>
-    <t>res/bt/bt_Sahman.xml</t>
-  </si>
-  <si>
     <t>Ogre</t>
   </si>
   <si>
@@ -318,9 +267,6 @@
     <t>暗影射手</t>
   </si>
   <si>
-    <t>res/bt/bt_archer.xml</t>
-  </si>
-  <si>
     <t>NoxiousSon</t>
   </si>
   <si>
@@ -333,16 +279,10 @@
     <t>魔王变身-追击</t>
   </si>
   <si>
-    <t>res/bt/bt_devilChase.xml</t>
-  </si>
-  <si>
     <t>Militia_Escape</t>
   </si>
   <si>
     <t>民兵-逃亡</t>
-  </si>
-  <si>
-    <t>res/bt/bt_escape.xml</t>
   </si>
   <si>
     <t>Footman_Escape</t>
@@ -357,9 +297,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -368,8 +308,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -391,6 +346,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -399,69 +368,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,7 +384,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,14 +431,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,13 +458,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -534,7 +474,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +498,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,7 +522,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,37 +570,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,73 +630,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,31 +648,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,84 +665,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -825,153 +687,231 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1303,10 +1243,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AE27"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="A22" sqref="$A22:$XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1315,24 +1255,23 @@
     <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.125" style="1" customWidth="1"/>
-    <col min="12" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="15.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.25" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15" style="1" customWidth="1"/>
-    <col min="21" max="22" width="9" style="1"/>
-    <col min="23" max="23" width="12" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="1" customWidth="1"/>
+    <col min="11" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="10" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.25" style="1" customWidth="1"/>
+    <col min="19" max="20" width="9" style="1"/>
+    <col min="21" max="21" width="12" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:31">
+    <row r="1" s="1" customFormat="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1405,29 +1344,8 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:31">
+    <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1500,349 +1418,265 @@
       <c r="X2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="1" t="s">
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:24">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="1" t="s">
-        <v>30</v>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:31">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" s="2" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:24">
+      <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:24">
+      <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>59</v>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:31">
-      <c r="A4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:31">
-      <c r="A5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0</v>
-      </c>
-      <c r="U5" s="3">
-        <v>0</v>
-      </c>
-      <c r="V5" s="3">
-        <v>0</v>
-      </c>
-      <c r="W5" s="3">
-        <v>0</v>
-      </c>
-      <c r="X5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="2:31">
+    <row r="6" s="3" customFormat="1" spans="2:24">
       <c r="B6" s="3">
         <v>1001</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>1001</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>65</v>
+      <c r="F6" s="3">
+        <v>40</v>
       </c>
       <c r="G6" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H6" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I6" s="3">
         <v>30</v>
       </c>
       <c r="J6" s="3">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="K6" s="3">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="L6" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="3">
         <v>0</v>
@@ -1851,13 +1685,13 @@
         <v>0</v>
       </c>
       <c r="P6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="3">
         <v>0</v>
@@ -1866,75 +1700,54 @@
         <v>0</v>
       </c>
       <c r="U6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="3">
-        <v>20</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>20</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>5</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="2:31">
+    <row r="7" s="3" customFormat="1" spans="2:24">
       <c r="B7" s="3">
         <v>1002</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>1002</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>65</v>
+      <c r="F7" s="3">
+        <v>40</v>
       </c>
       <c r="G7" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H7" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I7" s="3">
         <v>30</v>
       </c>
       <c r="J7" s="3">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="K7" s="3">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="L7" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -1943,13 +1756,13 @@
         <v>0</v>
       </c>
       <c r="P7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="3">
         <v>0</v>
@@ -1958,72 +1771,51 @@
         <v>0</v>
       </c>
       <c r="U7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="3">
-        <v>20</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>18</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>6</v>
-      </c>
-      <c r="AC7" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="2:31">
+    <row r="8" s="3" customFormat="1" spans="2:24">
       <c r="B8" s="3">
         <v>1003</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>1003</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>65</v>
+      <c r="F8" s="3">
+        <v>40</v>
       </c>
       <c r="G8" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H8" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I8" s="3">
         <v>30</v>
       </c>
       <c r="J8" s="3">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="K8" s="3">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="L8" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -2032,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -2047,75 +1839,54 @@
         <v>0</v>
       </c>
       <c r="U8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="3">
-        <v>20</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>4</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>18</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>6</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="2:31">
+    <row r="9" s="3" customFormat="1" spans="2:24">
       <c r="B9" s="3">
         <v>1004</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E9">
         <v>1004</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>65</v>
+      <c r="F9" s="3">
+        <v>40</v>
       </c>
       <c r="G9" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H9" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I9" s="3">
         <v>30</v>
       </c>
       <c r="J9" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K9" s="3">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="L9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -2124,13 +1895,13 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
@@ -2139,75 +1910,54 @@
         <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="2:31">
+    <row r="10" s="3" customFormat="1" spans="2:24">
       <c r="B10" s="3">
         <v>1005</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>1005</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>65</v>
+      <c r="F10" s="3">
+        <v>40</v>
       </c>
       <c r="G10" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H10" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I10" s="3">
         <v>30</v>
       </c>
       <c r="J10" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="L10" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -2216,13 +1966,13 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
@@ -2231,75 +1981,54 @@
         <v>0</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="3">
-        <v>20</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>4</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="2:31">
+    <row r="11" s="3" customFormat="1" spans="2:24">
       <c r="B11" s="3">
         <v>1006</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E11">
         <v>1006</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>65</v>
+      <c r="F11" s="3">
+        <v>40</v>
       </c>
       <c r="G11" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H11" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I11" s="3">
         <v>30</v>
       </c>
       <c r="J11" s="3">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="K11" s="3">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="L11" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="3">
         <v>0</v>
@@ -2308,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="P11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S11" s="3">
         <v>0</v>
@@ -2323,75 +2052,54 @@
         <v>0</v>
       </c>
       <c r="U11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="3">
-        <v>20</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>4</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="2:31">
+    <row r="12" s="3" customFormat="1" spans="2:24">
       <c r="B12" s="3">
         <v>1007</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E12">
         <v>1007</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="3">
         <v>40</v>
       </c>
-      <c r="H12" s="1">
+      <c r="G12" s="1">
         <v>200</v>
       </c>
+      <c r="H12" s="3">
+        <v>30</v>
+      </c>
       <c r="I12" s="3">
         <v>30</v>
       </c>
       <c r="J12" s="3">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="K12" s="3">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="L12" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -2400,274 +2108,211 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="3">
         <v>1</v>
       </c>
       <c r="R12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S12" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T12" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U12" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V12" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="3">
-        <v>20</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>4</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="2:31">
+    <row r="13" s="3" customFormat="1" spans="2:24">
       <c r="B13" s="3">
         <v>1008</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E13">
         <v>1008</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="3">
         <v>40</v>
       </c>
-      <c r="H13" s="1">
+      <c r="G13" s="1">
         <v>200</v>
       </c>
+      <c r="H13" s="3">
+        <v>30</v>
+      </c>
       <c r="I13" s="3">
         <v>30</v>
       </c>
       <c r="J13" s="3">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="K13" s="3">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1</v>
+      </c>
+      <c r="V13" s="3">
         <v>20</v>
       </c>
-      <c r="M13" s="3">
-        <v>1</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1</v>
-      </c>
-      <c r="R13" s="3">
-        <v>2</v>
-      </c>
-      <c r="S13" s="3">
-        <v>0</v>
-      </c>
-      <c r="T13" s="3">
-        <v>0</v>
-      </c>
-      <c r="U13" s="3">
-        <v>0</v>
-      </c>
-      <c r="V13" s="3">
-        <v>0</v>
-      </c>
       <c r="W13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="3">
-        <v>20</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>4</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:31">
+    <row r="14" spans="2:24">
       <c r="B14">
         <v>2001</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E14">
         <v>2001</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>65</v>
+      <c r="F14" s="1">
+        <v>24</v>
       </c>
       <c r="G14" s="1">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="H14" s="1">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="I14" s="1">
         <v>30</v>
       </c>
       <c r="J14" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K14" s="1">
+        <v>3</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1">
         <v>20</v>
       </c>
-      <c r="L14" s="1">
-        <v>3</v>
-      </c>
-      <c r="M14" s="1">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>1</v>
-      </c>
-      <c r="R14" s="3">
-        <v>2</v>
-      </c>
-      <c r="S14" s="1">
-        <v>0</v>
-      </c>
-      <c r="T14" s="1">
-        <v>0</v>
-      </c>
-      <c r="U14" s="1">
-        <v>0</v>
-      </c>
-      <c r="V14" s="1">
-        <v>0</v>
-      </c>
-      <c r="W14" s="1">
-        <v>1</v>
-      </c>
-      <c r="X14" s="1">
-        <v>20</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>43</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>4</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="3">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:31">
+    <row r="15" spans="2:24">
       <c r="B15">
         <v>2002</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E15">
         <v>2002</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>65</v>
+      <c r="F15" s="1">
+        <v>16</v>
       </c>
       <c r="G15" s="1">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="H15" s="1">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="I15" s="1">
         <v>30</v>
       </c>
       <c r="J15" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K15" s="1">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="L15" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
@@ -2676,13 +2321,13 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
-      </c>
-      <c r="R15" s="3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
       </c>
       <c r="S15" s="1">
         <v>0</v>
@@ -2691,366 +2336,282 @@
         <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="1">
-        <v>1</v>
-      </c>
-      <c r="X15" s="1">
         <v>25</v>
       </c>
-      <c r="Y15" s="1">
-        <v>6</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>15</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>4</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="3">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:31">
+    <row r="16" spans="2:24">
       <c r="B16">
         <v>2003</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E16">
         <v>2003</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>85</v>
+      <c r="F16" s="1">
+        <v>20</v>
       </c>
       <c r="G16" s="1">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="H16" s="1">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="I16" s="1">
         <v>30</v>
       </c>
       <c r="J16" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K16" s="1">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="L16" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O16" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1">
-        <v>1</v>
-      </c>
-      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
         <v>2</v>
       </c>
       <c r="S16" s="1">
         <v>0</v>
       </c>
       <c r="T16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="1">
-        <v>1</v>
-      </c>
-      <c r="X16" s="1">
         <v>25</v>
       </c>
-      <c r="Y16" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>14</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>4</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="3">
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:31">
+    <row r="17" spans="2:24">
       <c r="B17">
         <v>2004</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <v>2004</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>65</v>
+      <c r="F17" s="1">
+        <v>14</v>
       </c>
       <c r="G17" s="1">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="H17" s="1">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="I17" s="1">
         <v>30</v>
       </c>
       <c r="J17" s="1">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="K17" s="1">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>2</v>
+      </c>
+      <c r="V17" s="1">
         <v>50</v>
       </c>
-      <c r="M17" s="1">
-        <v>1</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>1</v>
-      </c>
-      <c r="R17" s="3">
-        <v>2</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
-      <c r="T17" s="1">
-        <v>0</v>
-      </c>
-      <c r="U17" s="1">
-        <v>0</v>
-      </c>
-      <c r="V17" s="1">
-        <v>0</v>
-      </c>
-      <c r="W17" s="1">
-        <v>2</v>
-      </c>
-      <c r="X17" s="1">
-        <v>50</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>10</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>8</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>4</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="3">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:31">
+    <row r="18" spans="2:24">
       <c r="B18">
         <v>2005</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E18">
         <v>2005</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>65</v>
+      <c r="F18" s="1">
+        <v>24</v>
       </c>
       <c r="G18" s="1">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="H18" s="1">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="I18" s="1">
         <v>30</v>
       </c>
       <c r="J18" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K18" s="1">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>50</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1</v>
+      </c>
+      <c r="V18" s="1">
         <v>25</v>
       </c>
-      <c r="M18" s="1">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0</v>
-      </c>
-      <c r="P18" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>1</v>
-      </c>
-      <c r="R18" s="3">
-        <v>2</v>
-      </c>
-      <c r="S18" s="1">
-        <v>0</v>
-      </c>
-      <c r="T18" s="1">
-        <v>0</v>
-      </c>
-      <c r="U18" s="1">
-        <v>0</v>
-      </c>
-      <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="1">
-        <v>1</v>
-      </c>
-      <c r="X18" s="1">
-        <v>25</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>12</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>4</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="3">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:31">
+    <row r="19" spans="2:24">
       <c r="B19">
         <v>2006</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E19">
         <v>2006</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>65</v>
+      <c r="F19" s="1">
+        <v>16</v>
       </c>
       <c r="G19" s="1">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="H19" s="1">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="I19" s="1">
         <v>30</v>
       </c>
       <c r="J19" s="1">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="K19" s="1">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="L19" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M19" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="N19" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1">
         <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="1">
-        <v>1</v>
-      </c>
-      <c r="R19" s="3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
       </c>
       <c r="S19" s="1">
         <v>0</v>
@@ -3059,90 +2620,69 @@
         <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="1">
-        <v>0</v>
-      </c>
-      <c r="W19" s="1">
-        <v>1</v>
-      </c>
-      <c r="X19" s="1">
         <v>25</v>
       </c>
-      <c r="Y19" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>9</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>4</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="3">
+      <c r="W19" s="3">
+        <v>0</v>
+      </c>
+      <c r="X19" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:31">
+    <row r="20" spans="2:24">
       <c r="B20">
         <v>2007</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E20">
         <v>2007</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>65</v>
+      <c r="F20" s="1">
+        <v>50</v>
       </c>
       <c r="G20" s="1">
+        <v>200</v>
+      </c>
+      <c r="H20" s="1">
+        <v>30</v>
+      </c>
+      <c r="I20" s="1">
+        <v>30</v>
+      </c>
+      <c r="J20" s="1">
+        <v>35</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
         <v>50</v>
       </c>
-      <c r="H20" s="1">
-        <v>200</v>
-      </c>
-      <c r="I20" s="1">
-        <v>30</v>
-      </c>
-      <c r="J20" s="1">
-        <v>30</v>
-      </c>
-      <c r="K20" s="1">
-        <v>35</v>
-      </c>
-      <c r="L20" s="1">
-        <v>2</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0</v>
-      </c>
       <c r="P20" s="1">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="1">
-        <v>1</v>
-      </c>
-      <c r="R20" s="3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
       </c>
       <c r="S20" s="1">
         <v>0</v>
@@ -3151,75 +2691,54 @@
         <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="1">
-        <v>0</v>
-      </c>
-      <c r="W20" s="1">
-        <v>1</v>
-      </c>
-      <c r="X20" s="1">
         <v>20</v>
       </c>
-      <c r="Y20" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>11</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>4</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="3">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:31">
+    <row r="21" spans="2:24">
       <c r="B21">
         <v>2008</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E21">
         <v>2008</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>85</v>
+      <c r="F21" s="1">
+        <v>5</v>
       </c>
       <c r="G21" s="1">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="H21" s="1">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="I21" s="1">
         <v>50</v>
       </c>
       <c r="J21" s="1">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="K21" s="1">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="L21" s="1">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="M21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -3228,274 +2747,211 @@
         <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="1">
-        <v>1</v>
-      </c>
-      <c r="R21" s="3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>3</v>
       </c>
       <c r="S21" s="1">
         <v>0</v>
       </c>
       <c r="T21" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V21" s="1">
-        <v>0</v>
-      </c>
-      <c r="W21" s="1">
-        <v>4</v>
-      </c>
-      <c r="X21" s="1">
         <v>100</v>
       </c>
-      <c r="Y21" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>21</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>10</v>
-      </c>
-      <c r="AC21" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD21" s="3">
+      <c r="W21" s="3">
         <v>-26</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="X21" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="2:31">
+    <row r="22" spans="2:24">
       <c r="B22">
         <v>2009</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E22">
         <v>2009</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>85</v>
+      <c r="F22" s="1">
+        <v>8</v>
       </c>
       <c r="G22" s="1">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="H22" s="1">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="I22" s="1">
         <v>30</v>
       </c>
       <c r="J22" s="1">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="K22" s="1">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="L22" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="M22" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="N22" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O22" s="1">
         <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="1">
-        <v>1</v>
-      </c>
-      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>5</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
         <v>2</v>
       </c>
-      <c r="S22" s="1">
-        <v>0</v>
-      </c>
-      <c r="T22" s="1">
-        <v>5</v>
-      </c>
-      <c r="U22" s="1">
-        <v>0</v>
-      </c>
       <c r="V22" s="1">
-        <v>0</v>
-      </c>
-      <c r="W22" s="1">
-        <v>2</v>
-      </c>
-      <c r="X22" s="1">
         <v>35</v>
       </c>
-      <c r="Y22" s="1">
-        <v>7</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>12</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>20</v>
-      </c>
-      <c r="AC22" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="3">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:31">
+    <row r="23" spans="2:24">
       <c r="B23">
         <v>2010</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E23">
         <v>2010</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="1">
+        <v>24</v>
+      </c>
+      <c r="G23" s="1">
+        <v>200</v>
+      </c>
+      <c r="H23" s="1">
+        <v>30</v>
+      </c>
+      <c r="I23" s="1">
+        <v>150</v>
+      </c>
+      <c r="J23" s="1">
         <v>100</v>
       </c>
-      <c r="G23" s="1">
-        <v>24</v>
-      </c>
-      <c r="H23" s="1">
-        <v>200</v>
-      </c>
-      <c r="I23" s="1">
-        <v>30</v>
-      </c>
-      <c r="J23" s="1">
-        <v>200</v>
-      </c>
       <c r="K23" s="1">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="L23" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="1">
-        <v>1</v>
-      </c>
-      <c r="R23" s="3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>4</v>
       </c>
       <c r="S23" s="1">
         <v>0</v>
       </c>
       <c r="T23" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="1">
-        <v>0</v>
-      </c>
-      <c r="W23" s="1">
-        <v>1</v>
-      </c>
-      <c r="X23" s="1">
         <v>20</v>
       </c>
-      <c r="Y23" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>10</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>4</v>
-      </c>
-      <c r="AC23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="3">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:31">
+    <row r="24" spans="2:24">
       <c r="B24">
         <v>2011</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="E24">
         <v>2011</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>65</v>
+      <c r="F24" s="1">
+        <v>30</v>
       </c>
       <c r="G24" s="1">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="H24" s="1">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="I24" s="1">
         <v>30</v>
       </c>
       <c r="J24" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K24" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="L24" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N24" s="1">
         <v>0</v>
@@ -3504,13 +2960,13 @@
         <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="1">
-        <v>1</v>
-      </c>
-      <c r="R24" s="3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
       </c>
       <c r="S24" s="1">
         <v>0</v>
@@ -3519,167 +2975,125 @@
         <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="1">
-        <v>1</v>
-      </c>
-      <c r="X24" s="1">
         <v>20</v>
       </c>
-      <c r="Y24" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z24" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="AA24" s="1">
-        <v>43</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>4</v>
-      </c>
-      <c r="AC24" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="3">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:31">
+    <row r="25" spans="2:24">
       <c r="B25">
         <v>2012</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E25">
         <v>2012</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>105</v>
+      <c r="F25" s="1">
+        <v>5</v>
       </c>
       <c r="G25" s="1">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="H25" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I25" s="1">
         <v>100</v>
       </c>
       <c r="J25" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K25" s="1">
+        <v>50</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>3</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>4</v>
+      </c>
+      <c r="V25" s="1">
         <v>100</v>
       </c>
-      <c r="K25" s="1">
-        <v>10000</v>
-      </c>
-      <c r="L25" s="1">
-        <v>50</v>
-      </c>
-      <c r="M25" s="1">
-        <v>1</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
-      <c r="O25" s="1">
-        <v>0</v>
-      </c>
-      <c r="P25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>1</v>
-      </c>
-      <c r="R25" s="3">
-        <v>2</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0</v>
-      </c>
-      <c r="T25" s="1">
-        <v>3</v>
-      </c>
-      <c r="U25" s="1">
-        <v>0</v>
-      </c>
-      <c r="V25" s="1">
-        <v>0</v>
-      </c>
-      <c r="W25" s="1">
-        <v>4</v>
-      </c>
-      <c r="X25" s="1">
-        <v>100</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z25" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>21</v>
-      </c>
-      <c r="AB25" s="1">
-        <v>10</v>
-      </c>
-      <c r="AC25" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD25" s="3">
+      <c r="W25" s="3">
         <v>-26</v>
       </c>
-      <c r="AE25" s="3">
+      <c r="X25" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" spans="2:31">
+    <row r="26" s="3" customFormat="1" spans="2:24">
       <c r="B26" s="3">
         <v>3001</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E26">
         <v>1004</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>108</v>
+      <c r="F26" s="3">
+        <v>40</v>
       </c>
       <c r="G26" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H26" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I26" s="3">
         <v>30</v>
       </c>
       <c r="J26" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K26" s="3">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="L26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
@@ -3688,13 +3102,13 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
@@ -3703,75 +3117,54 @@
         <v>0</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
-        <v>20</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>2</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" spans="2:31">
+    <row r="27" s="3" customFormat="1" spans="2:24">
       <c r="B27" s="3">
         <v>3002</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E27">
         <v>1005</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>108</v>
+      <c r="F27" s="3">
+        <v>40</v>
       </c>
       <c r="G27" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H27" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I27" s="3">
         <v>30</v>
       </c>
       <c r="J27" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="L27" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
@@ -3780,13 +3173,13 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
@@ -3795,36 +3188,15 @@
         <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
-        <v>20</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>2</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Doc/xlsx/Role.xlsx
+++ b/Doc/xlsx/Role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25095" windowHeight="12600"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -296,10 +296,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -309,9 +309,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -340,76 +407,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,16 +429,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,8 +451,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,7 +474,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,7 +522,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,55 +624,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,55 +642,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,43 +654,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,6 +665,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -688,41 +736,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,177 +765,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -992,7 +992,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCEDC7"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1245,8 +1245,8 @@
   <sheetPr/>
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2839,10 +2839,10 @@
         <v>35</v>
       </c>
       <c r="W22" s="3">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="X22" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:24">

--- a/Doc/xlsx/Role.xlsx
+++ b/Doc/xlsx/Role.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="97">
   <si>
     <t>note</t>
   </si>
@@ -289,177 +289,47 @@
   </si>
   <si>
     <t>步兵-逃亡</t>
+  </si>
+  <si>
+    <t>scriptName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soldier</t>
+  </si>
+  <si>
+    <t>Monster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,194 +342,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -667,251 +351,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -929,58 +371,84 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -992,7 +460,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="CCEDC7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1241,37 +709,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:X27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="1" customWidth="1"/>
-    <col min="11" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="10" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.75" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.25" style="1" customWidth="1"/>
-    <col min="19" max="20" width="9" style="1"/>
-    <col min="21" max="21" width="12" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="1"/>
+    <col min="4" max="5" width="13.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" style="1" customWidth="1"/>
+    <col min="12" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="10" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.75" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.25" style="1" customWidth="1"/>
+    <col min="20" max="21" width="9" style="1"/>
+    <col min="22" max="22" width="12" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:24">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1284,68 +751,71 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:24">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1358,68 +828,71 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:24">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1433,67 +906,70 @@
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:24">
+    <row r="4" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -1507,7 +983,7 @@
         <v>46</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>47</v>
@@ -1566,8 +1042,11 @@
       <c r="X4" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="Y4" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:24">
+    <row r="5" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
@@ -1580,8 +1059,8 @@
       <c r="D5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="3">
-        <v>0</v>
+      <c r="E5" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -1640,8 +1119,11 @@
       <c r="X5" s="3">
         <v>0</v>
       </c>
+      <c r="Y5" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="2:24">
+    <row r="6" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3">
         <v>1001</v>
       </c>
@@ -1651,32 +1133,32 @@
       <c r="D6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6">
         <v>1001</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>40</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>80</v>
       </c>
-      <c r="H6" s="3">
-        <v>30</v>
-      </c>
       <c r="I6" s="3">
         <v>30</v>
       </c>
       <c r="J6" s="3">
+        <v>30</v>
+      </c>
+      <c r="K6" s="3">
         <v>150</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>10</v>
       </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
       <c r="M6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="3">
         <v>0</v>
@@ -1685,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="3">
         <v>0</v>
@@ -1700,19 +1182,22 @@
         <v>0</v>
       </c>
       <c r="U6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" s="3">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3">
         <v>20</v>
       </c>
-      <c r="W6" s="3">
-        <v>0</v>
-      </c>
       <c r="X6" s="3">
         <v>0</v>
       </c>
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="2:24">
+    <row r="7" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3">
         <v>1002</v>
       </c>
@@ -1722,32 +1207,32 @@
       <c r="D7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7">
         <v>1002</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>40</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>80</v>
       </c>
-      <c r="H7" s="3">
-        <v>30</v>
-      </c>
       <c r="I7" s="3">
         <v>30</v>
       </c>
       <c r="J7" s="3">
+        <v>30</v>
+      </c>
+      <c r="K7" s="3">
         <v>150</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>10</v>
       </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
       <c r="M7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -1756,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="3">
         <v>0</v>
@@ -1771,51 +1256,54 @@
         <v>0</v>
       </c>
       <c r="U7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="3">
+        <v>1</v>
+      </c>
+      <c r="W7" s="3">
         <v>20</v>
       </c>
-      <c r="W7" s="3">
-        <v>0</v>
-      </c>
       <c r="X7" s="3">
         <v>0</v>
       </c>
+      <c r="Y7" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="2:24">
+    <row r="8" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>1003</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8">
         <v>1003</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>40</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>80</v>
       </c>
-      <c r="H8" s="3">
-        <v>30</v>
-      </c>
       <c r="I8" s="3">
         <v>30</v>
       </c>
       <c r="J8" s="3">
+        <v>30</v>
+      </c>
+      <c r="K8" s="3">
         <v>150</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10</v>
       </c>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -1824,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -1839,19 +1327,22 @@
         <v>0</v>
       </c>
       <c r="U8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="3">
+        <v>1</v>
+      </c>
+      <c r="W8" s="3">
         <v>20</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
       <c r="X8" s="3">
         <v>0</v>
       </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="2:24">
+    <row r="9" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>1004</v>
       </c>
@@ -1861,32 +1352,32 @@
       <c r="D9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9">
         <v>1004</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>40</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>80</v>
       </c>
-      <c r="H9" s="3">
-        <v>30</v>
-      </c>
       <c r="I9" s="3">
         <v>30</v>
       </c>
       <c r="J9" s="3">
+        <v>30</v>
+      </c>
+      <c r="K9" s="3">
         <v>50</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2</v>
       </c>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -1895,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -1910,19 +1401,22 @@
         <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
+        <v>1</v>
+      </c>
+      <c r="W9" s="3">
         <v>20</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
       <c r="X9" s="3">
         <v>0</v>
       </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="2:24">
+    <row r="10" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>1005</v>
       </c>
@@ -1932,32 +1426,32 @@
       <c r="D10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10">
         <v>1005</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>40</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>80</v>
       </c>
-      <c r="H10" s="3">
-        <v>30</v>
-      </c>
       <c r="I10" s="3">
         <v>30</v>
       </c>
       <c r="J10" s="3">
+        <v>30</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -1966,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
@@ -1981,19 +1475,22 @@
         <v>0</v>
       </c>
       <c r="U10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3">
+        <v>1</v>
+      </c>
+      <c r="W10" s="3">
         <v>20</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
       <c r="X10" s="3">
         <v>0</v>
       </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="2:24">
+    <row r="11" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>1006</v>
       </c>
@@ -2003,32 +1500,32 @@
       <c r="D11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11">
         <v>1006</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>40</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>80</v>
       </c>
-      <c r="H11" s="3">
-        <v>30</v>
-      </c>
       <c r="I11" s="3">
         <v>30</v>
       </c>
       <c r="J11" s="3">
+        <v>30</v>
+      </c>
+      <c r="K11" s="3">
         <v>150</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <v>8</v>
       </c>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
       <c r="M11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="3">
         <v>0</v>
@@ -2037,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="3">
         <v>0</v>
@@ -2052,19 +1549,22 @@
         <v>0</v>
       </c>
       <c r="U11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="3">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3">
         <v>20</v>
       </c>
-      <c r="W11" s="3">
-        <v>0</v>
-      </c>
       <c r="X11" s="3">
         <v>0</v>
       </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="2:24">
+    <row r="12" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>1007</v>
       </c>
@@ -2074,32 +1574,32 @@
       <c r="D12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12">
         <v>1007</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>40</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
-        <v>30</v>
-      </c>
       <c r="I12" s="3">
         <v>30</v>
       </c>
       <c r="J12" s="3">
+        <v>30</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16</v>
       </c>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -2108,34 +1608,37 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="3">
         <v>1</v>
       </c>
       <c r="R12" s="3">
+        <v>1</v>
+      </c>
+      <c r="S12" s="3">
         <v>6</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
       <c r="U12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="3">
+        <v>1</v>
+      </c>
+      <c r="W12" s="3">
         <v>20</v>
       </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
       <c r="X12" s="3">
         <v>0</v>
       </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="2:24">
+    <row r="13" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>1008</v>
       </c>
@@ -2145,32 +1648,32 @@
       <c r="D13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13">
         <v>1008</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>40</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>200</v>
       </c>
-      <c r="H13" s="3">
-        <v>30</v>
-      </c>
       <c r="I13" s="3">
         <v>30</v>
       </c>
       <c r="J13" s="3">
+        <v>30</v>
+      </c>
+      <c r="K13" s="3">
         <v>200</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>20</v>
       </c>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
       <c r="M13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="3">
         <v>0</v>
@@ -2179,10 +1682,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="3">
         <v>0</v>
@@ -2194,19 +1697,22 @@
         <v>0</v>
       </c>
       <c r="U13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="3">
+        <v>1</v>
+      </c>
+      <c r="W13" s="3">
         <v>20</v>
       </c>
-      <c r="W13" s="3">
-        <v>0</v>
-      </c>
       <c r="X13" s="3">
         <v>0</v>
       </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="2:24">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>2001</v>
       </c>
@@ -2216,32 +1722,32 @@
       <c r="D14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14">
         <v>2001</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>24</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>200</v>
       </c>
-      <c r="H14" s="1">
-        <v>30</v>
-      </c>
       <c r="I14" s="1">
         <v>30</v>
       </c>
       <c r="J14" s="1">
+        <v>30</v>
+      </c>
+      <c r="K14" s="1">
         <v>20</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>3</v>
       </c>
-      <c r="L14" s="1">
-        <v>1</v>
-      </c>
       <c r="M14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>
@@ -2250,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2265,19 +1771,22 @@
         <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="1">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1">
         <v>20</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="2:24">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>2002</v>
       </c>
@@ -2287,32 +1796,32 @@
       <c r="D15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15">
         <v>2002</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>16</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>200</v>
       </c>
-      <c r="H15" s="1">
-        <v>30</v>
-      </c>
       <c r="I15" s="1">
         <v>30</v>
       </c>
       <c r="J15" s="1">
+        <v>30</v>
+      </c>
+      <c r="K15" s="1">
         <v>80</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>6</v>
       </c>
-      <c r="L15" s="1">
-        <v>1</v>
-      </c>
       <c r="M15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
@@ -2321,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2336,19 +1845,22 @@
         <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" s="1">
+        <v>1</v>
+      </c>
+      <c r="W15" s="1">
         <v>25</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="2:24">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>2003</v>
       </c>
@@ -2358,68 +1870,71 @@
       <c r="D16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16">
         <v>2003</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>20</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>200</v>
       </c>
-      <c r="H16" s="1">
-        <v>30</v>
-      </c>
       <c r="I16" s="1">
         <v>30</v>
       </c>
       <c r="J16" s="1">
+        <v>30</v>
+      </c>
+      <c r="K16" s="1">
         <v>100</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>4</v>
       </c>
-      <c r="L16" s="1">
-        <v>1</v>
-      </c>
       <c r="M16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
         <v>80</v>
       </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
         <v>2</v>
       </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
       <c r="T16" s="1">
         <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="1">
+        <v>1</v>
+      </c>
+      <c r="W16" s="1">
         <v>25</v>
       </c>
-      <c r="W16" s="3">
-        <v>0</v>
-      </c>
       <c r="X16" s="3">
         <v>0</v>
       </c>
+      <c r="Y16" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="2:24">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>2004</v>
       </c>
@@ -2429,32 +1944,32 @@
       <c r="D17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17">
         <v>2004</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>14</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>200</v>
       </c>
-      <c r="H17" s="1">
-        <v>30</v>
-      </c>
       <c r="I17" s="1">
         <v>30</v>
       </c>
       <c r="J17" s="1">
+        <v>30</v>
+      </c>
+      <c r="K17" s="1">
         <v>800</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>50</v>
       </c>
-      <c r="L17" s="1">
-        <v>1</v>
-      </c>
       <c r="M17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="1">
         <v>0</v>
@@ -2463,10 +1978,10 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
@@ -2478,19 +1993,22 @@
         <v>0</v>
       </c>
       <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
         <v>2</v>
       </c>
-      <c r="V17" s="1">
+      <c r="W17" s="1">
         <v>50</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
       <c r="X17" s="3">
         <v>0</v>
       </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="2:24">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>2005</v>
       </c>
@@ -2500,44 +2018,44 @@
       <c r="D18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18">
         <v>2005</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>24</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>200</v>
       </c>
-      <c r="H18" s="1">
-        <v>30</v>
-      </c>
       <c r="I18" s="1">
         <v>30</v>
       </c>
       <c r="J18" s="1">
+        <v>30</v>
+      </c>
+      <c r="K18" s="1">
         <v>70</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>25</v>
       </c>
-      <c r="L18" s="1">
-        <v>1</v>
-      </c>
       <c r="M18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="1">
         <v>0</v>
       </c>
       <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
         <v>50</v>
       </c>
-      <c r="P18" s="1">
-        <v>1</v>
-      </c>
       <c r="Q18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
@@ -2549,19 +2067,22 @@
         <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="1">
+        <v>1</v>
+      </c>
+      <c r="W18" s="1">
         <v>25</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
         <v>0</v>
       </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="2:24">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>2006</v>
       </c>
@@ -2571,44 +2092,44 @@
       <c r="D19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19">
         <v>2006</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>16</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>200</v>
       </c>
-      <c r="H19" s="1">
-        <v>30</v>
-      </c>
       <c r="I19" s="1">
         <v>30</v>
       </c>
       <c r="J19" s="1">
+        <v>30</v>
+      </c>
+      <c r="K19" s="1">
         <v>160</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <v>8</v>
       </c>
-      <c r="L19" s="1">
-        <v>1</v>
-      </c>
       <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
         <v>50</v>
       </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
       <c r="O19" s="1">
         <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="1">
         <v>0</v>
@@ -2620,19 +2141,22 @@
         <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="1">
+        <v>1</v>
+      </c>
+      <c r="W19" s="1">
         <v>25</v>
       </c>
-      <c r="W19" s="3">
-        <v>0</v>
-      </c>
       <c r="X19" s="3">
         <v>0</v>
       </c>
+      <c r="Y19" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="2:24">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>2007</v>
       </c>
@@ -2642,44 +2166,44 @@
       <c r="D20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20">
         <v>2007</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>50</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>200</v>
       </c>
-      <c r="H20" s="1">
-        <v>30</v>
-      </c>
       <c r="I20" s="1">
         <v>30</v>
       </c>
       <c r="J20" s="1">
+        <v>30</v>
+      </c>
+      <c r="K20" s="1">
         <v>35</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>2</v>
       </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
       <c r="M20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
       </c>
       <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
         <v>50</v>
       </c>
-      <c r="P20" s="1">
-        <v>1</v>
-      </c>
       <c r="Q20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -2691,19 +2215,22 @@
         <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="1">
+        <v>1</v>
+      </c>
+      <c r="W20" s="1">
         <v>20</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="2:24">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>2008</v>
       </c>
@@ -2713,32 +2240,32 @@
       <c r="D21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21">
         <v>2008</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>5</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>200</v>
-      </c>
-      <c r="H21" s="1">
-        <v>50</v>
       </c>
       <c r="I21" s="1">
         <v>50</v>
       </c>
       <c r="J21" s="1">
+        <v>50</v>
+      </c>
+      <c r="K21" s="1">
         <v>10000</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <v>200</v>
       </c>
-      <c r="L21" s="1">
-        <v>1</v>
-      </c>
       <c r="M21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -2747,34 +2274,37 @@
         <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
         <v>3</v>
       </c>
-      <c r="S21" s="1">
-        <v>0</v>
-      </c>
       <c r="T21" s="1">
         <v>0</v>
       </c>
       <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
         <v>4</v>
       </c>
-      <c r="V21" s="1">
+      <c r="W21" s="1">
         <v>100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-26</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="2:24">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>2009</v>
       </c>
@@ -2784,68 +2314,71 @@
       <c r="D22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22">
         <v>2009</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>8</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>200</v>
       </c>
-      <c r="H22" s="1">
-        <v>30</v>
-      </c>
       <c r="I22" s="1">
         <v>30</v>
       </c>
       <c r="J22" s="1">
+        <v>30</v>
+      </c>
+      <c r="K22" s="1">
         <v>1000</v>
       </c>
-      <c r="K22" s="1">
-        <v>30</v>
-      </c>
       <c r="L22" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
         <v>50</v>
       </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
       <c r="O22" s="1">
         <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
         <v>5</v>
       </c>
-      <c r="S22" s="1">
-        <v>0</v>
-      </c>
       <c r="T22" s="1">
         <v>0</v>
       </c>
       <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
         <v>2</v>
       </c>
-      <c r="V22" s="1">
+      <c r="W22" s="1">
         <v>35</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>-25</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:24">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>2010</v>
       </c>
@@ -2855,68 +2388,71 @@
       <c r="D23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23">
         <v>2010</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>24</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>200</v>
       </c>
-      <c r="H23" s="1">
-        <v>30</v>
-      </c>
       <c r="I23" s="1">
+        <v>30</v>
+      </c>
+      <c r="J23" s="1">
         <v>150</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>100</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>15</v>
       </c>
-      <c r="L23" s="1">
-        <v>1</v>
-      </c>
       <c r="M23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O23" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
         <v>4</v>
       </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
       <c r="T23" s="1">
         <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="1">
+        <v>1</v>
+      </c>
+      <c r="W23" s="1">
         <v>20</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
         <v>0</v>
       </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="2:24">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>2011</v>
       </c>
@@ -2926,33 +2462,33 @@
       <c r="D24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24">
         <v>2011</v>
       </c>
-      <c r="F24" s="1">
-        <v>30</v>
-      </c>
       <c r="G24" s="1">
+        <v>30</v>
+      </c>
+      <c r="H24" s="1">
         <v>200</v>
       </c>
-      <c r="H24" s="1">
-        <v>30</v>
-      </c>
       <c r="I24" s="1">
         <v>30</v>
       </c>
       <c r="J24" s="1">
+        <v>30</v>
+      </c>
+      <c r="K24" s="1">
         <v>50</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <v>5</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>2</v>
       </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
       <c r="N24" s="1">
         <v>0</v>
       </c>
@@ -2960,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="1">
         <v>0</v>
@@ -2975,19 +2511,22 @@
         <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" s="1">
+        <v>1</v>
+      </c>
+      <c r="W24" s="1">
         <v>20</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="2:24">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>2012</v>
       </c>
@@ -2997,32 +2536,32 @@
       <c r="D25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25">
         <v>2012</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>5</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>200</v>
-      </c>
-      <c r="H25" s="1">
-        <v>100</v>
       </c>
       <c r="I25" s="1">
         <v>100</v>
       </c>
       <c r="J25" s="1">
+        <v>100</v>
+      </c>
+      <c r="K25" s="1">
         <v>10000</v>
       </c>
-      <c r="K25" s="1">
+      <c r="L25" s="1">
         <v>50</v>
       </c>
-      <c r="L25" s="1">
-        <v>1</v>
-      </c>
       <c r="M25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="1">
         <v>0</v>
@@ -3031,34 +2570,37 @@
         <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
         <v>3</v>
       </c>
-      <c r="S25" s="1">
-        <v>0</v>
-      </c>
       <c r="T25" s="1">
         <v>0</v>
       </c>
       <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
         <v>4</v>
       </c>
-      <c r="V25" s="1">
+      <c r="W25" s="1">
         <v>100</v>
       </c>
-      <c r="W25" s="3">
+      <c r="X25" s="3">
         <v>-26</v>
       </c>
-      <c r="X25" s="3">
+      <c r="Y25" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" spans="2:24">
+    <row r="26" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>3001</v>
       </c>
@@ -3068,32 +2610,32 @@
       <c r="D26" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26">
         <v>1004</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>40</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>80</v>
       </c>
-      <c r="H26" s="3">
-        <v>30</v>
-      </c>
       <c r="I26" s="3">
         <v>30</v>
       </c>
       <c r="J26" s="3">
+        <v>30</v>
+      </c>
+      <c r="K26" s="3">
         <v>50</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2</v>
       </c>
-      <c r="L26" s="3">
-        <v>1</v>
-      </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
@@ -3102,10 +2644,10 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
@@ -3117,19 +2659,22 @@
         <v>0</v>
       </c>
       <c r="U26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>1</v>
+      </c>
+      <c r="W26" s="3">
         <v>20</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
         <v>0</v>
       </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" s="3" customFormat="1" spans="2:24">
+    <row r="27" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>3002</v>
       </c>
@@ -3139,32 +2684,32 @@
       <c r="D27" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27">
         <v>1005</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>40</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>80</v>
       </c>
-      <c r="H27" s="3">
-        <v>30</v>
-      </c>
       <c r="I27" s="3">
         <v>30</v>
       </c>
       <c r="J27" s="3">
+        <v>30</v>
+      </c>
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4</v>
       </c>
-      <c r="L27" s="3">
-        <v>1</v>
-      </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
@@ -3173,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
@@ -3188,55 +2733,55 @@
         <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>1</v>
+      </c>
+      <c r="W27" s="3">
         <v>20</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>